--- a/trunk/10.Test/Testcase.xlsx
+++ b/trunk/10.Test/Testcase.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="234">
   <si>
     <t>TestcaseID</t>
   </si>
@@ -1945,6 +1945,290 @@
   <si>
     <t>Chọn phần xem danh sách account.
 - Click chọn member.</t>
+  </si>
+  <si>
+    <t>FUNC_ThemAccount_TC4</t>
+  </si>
+  <si>
+    <t>Chức năng thêm mới account.
+- Hiển thị các loại account</t>
+  </si>
+  <si>
+    <t>Chọn phần thêm mới account</t>
+  </si>
+  <si>
+    <t>Màn hình hiển thị các loại account để admin có thể chọn</t>
+  </si>
+  <si>
+    <t>FUNC_ThemAccount_TC5</t>
+  </si>
+  <si>
+    <t>Click vào nút đăng ký trên giao diện
+- Lựa chọn loại account là member
+- Điền các dữ liệu dùng để kiểm tra vào các ô trên màn hình
+- Click vào nút "Đăng ký hoàn tất"</t>
+  </si>
+  <si>
+    <t>FUNC_ThemAccount_TC1</t>
+  </si>
+  <si>
+    <t>FUNC_ThemAccount_TC2</t>
+  </si>
+  <si>
+    <t>FUNC_ThemAccount_TC3</t>
+  </si>
+  <si>
+    <t>FUNC_ThemAccount_TC6</t>
+  </si>
+  <si>
+    <t>FUNC_ThemAccount_TC7</t>
+  </si>
+  <si>
+    <t>FUNC_ThemAccount_TC8</t>
+  </si>
+  <si>
+    <t>FUNC_ThemAccount_TC9</t>
+  </si>
+  <si>
+    <t>FUNC_ThemAccount_TC10</t>
+  </si>
+  <si>
+    <t>FUNC_ThemAccount_TC11</t>
+  </si>
+  <si>
+    <t>FUNC_ThemAccount_TC12</t>
+  </si>
+  <si>
+    <t>FUNC_ThemAccount_TC13</t>
+  </si>
+  <si>
+    <t>FUNC_ThemAccount_TC14</t>
+  </si>
+  <si>
+    <t>FUNC_ThemAccount_TC15</t>
+  </si>
+  <si>
+    <t>FUNC_ThemAccount_TC16</t>
+  </si>
+  <si>
+    <t>FUNC_ThemAccount_TC17</t>
+  </si>
+  <si>
+    <t>Đã đăng nhập vào hệ thống với vai trò admin
+- Email abc@gmail.com chưa tồn tại</t>
+  </si>
+  <si>
+    <t>FUNC_DanhSachBaiGiang_TC1</t>
+  </si>
+  <si>
+    <t>Đã đăng nhập vào hệ thống với vai trò admin.</t>
+  </si>
+  <si>
+    <t>Chức năng xem danh sách các bài giảng trong sách giáo khoa.
+- Hiển thị các môn học và các chương thuộc môn học đó.</t>
+  </si>
+  <si>
+    <t>Chọn phần xem danh sách bài giảng.
+- Chọn môn học là môn Đại Số.
+- Xem các chương được hiển thị trong phần chọn chương.</t>
+  </si>
+  <si>
+    <t>Khi chọn môn học là đại số thì trong phần chọn chương, hệ thống phải hiển thị các chương sau môn Đại Số:
+- 1 Chương 1: Mệnh đề. Tập hợp.
+-2 Chương 2: Hàm số bậc nhất và bậc hai.
+-3 Chương 3: Phương trình. Hệ phương trình.
+-4 Chương 4: Bất đẳng thức. Bất phương trình.
+-5 Chương 5: Thống kê.
+-6 Chương 6: Cung và góc lượng giác. Công thức lượng giác.</t>
+  </si>
+  <si>
+    <t>FUNC_DanhSachBaiGiang_TC2</t>
+  </si>
+  <si>
+    <t>Chọn phần xem danh sách bài giảng.
+- Chọn môn học là môn Đại Số.
+- Xem các chương được hiển thị trong phần chọn chương.
+- Chọn chương I</t>
+  </si>
+  <si>
+    <t>Hiển thị các bài học có trong chương I của môn Đại Số:
+-1  Mệnh đề.
+-2  Tập hợp.
+-3  Các phép toán tập hợp.
+-4  Các tập hợp số.
+-5 Số gần đúng - Sai số.
+-6 Ôn tập chương I.</t>
+  </si>
+  <si>
+    <t>FUNC_DanhSachBaiGiang_TC3</t>
+  </si>
+  <si>
+    <t>Chọn phần xem danh sách bài giảng.
+- Chọn môn học là môn Đại Số.
+- Xem các chương được hiển thị trong phần chọn chương.
+- Chọn chương II</t>
+  </si>
+  <si>
+    <t>Hiển thị các bài học có trong chương II của môn Đại Số:
+-1 Hàm số.
+-2 Hàm số y = ax + b.
+-3 Hàm số bậc 2.
+-4 Ôn tập chương II.</t>
+  </si>
+  <si>
+    <t>FUNC_DanhSachBaiGiang_TC4</t>
+  </si>
+  <si>
+    <t>FUNC_DanhSachBaiGiang_TC5</t>
+  </si>
+  <si>
+    <t>FUNC_DanhSachBaiGiang_TC6</t>
+  </si>
+  <si>
+    <t>Chọn phần xem danh sách bài giảng.
+- Chọn môn học là môn Đại Số.
+- Xem các chương được hiển thị trong phần chọn chương.
+- Chọn chương III</t>
+  </si>
+  <si>
+    <t>Hiển thị các bài học có trong chương III của môn Đại Số:
+-1 Đại cương về phương trình.
+-2 Phương trình quy về phương trình bậc nhất, bậc hai.
+-3 Phương trình và hệ phương trình bậc nhất nhiều ẩn.
+-4 Ôn tập chương III</t>
+  </si>
+  <si>
+    <t>Chọn phần xem danh sách bài giảng.
+- Chọn môn học là môn Đại Số.
+- Xem các chương được hiển thị trong phần chọn chương.
+- Chọn chương IV</t>
+  </si>
+  <si>
+    <t>Hiển thị các bài học có trong chương IV của môn Đại Số:
+-1 Bất Đẳng Thức.
+-2 Bất phương trình và hệ bất phương trình một ẩn.
+-3 Dấu của nhị thức bậc nhất.
+-4 Bất phương trình bậc nhất hai ẩn.
+-5 Dấu của tam thức bậc hai.
+-6 Ôn tập chương IV.</t>
+  </si>
+  <si>
+    <t>Chọn phần xem danh sách bài giảng.
+- Chọn môn học là môn Đại Số.
+- Xem các chương được hiển thị trong phần chọn chương.
+- Chọn chương V</t>
+  </si>
+  <si>
+    <t>Hiển thị các bài học có trong chương V của môn Đại Số:
+-1 Bảng phân bố tần số và tần suất.
+-2 Biểu đồ.
+-3 Số trung bình cộng. Số trung vị. Mốt
+-4 Phương sai và độ lệch chuẩn.
+-5 Ôn tập chương V.</t>
+  </si>
+  <si>
+    <t>FUNC_DanhSachBaiGiang_TC7</t>
+  </si>
+  <si>
+    <t>Chọn phần xem danh sách bài giảng.
+- Chọn môn học là môn Đại Số.
+- Xem các chương được hiển thị trong phần chọn chương.
+- Chọn chương VI</t>
+  </si>
+  <si>
+    <t>Hiển thị các bài học có trong chương VI của môn Đại Số:
+-1 Cung và góc lượng giác.
+-2 Giá trị lượng giác của một cung.
+-3 Công thức lượng giác.
+-4 Ôn tập chương VI.
+-5 Ôn tập cuối năm</t>
+  </si>
+  <si>
+    <t>FUNC_DanhSachBaiGiang_TC8</t>
+  </si>
+  <si>
+    <t>FUNC_DanhSachBaiGiang_TC9</t>
+  </si>
+  <si>
+    <t>FUNC_DanhSachBaiGiang_TC10</t>
+  </si>
+  <si>
+    <t>FUNC_DanhSachBaiGiang_TC11</t>
+  </si>
+  <si>
+    <t>Chọn phần xem danh sách bài giảng.
+- Chọn môn học là môn Hình Học.
+- Xem các chương được hiển thị trong phần chọn chương.</t>
+  </si>
+  <si>
+    <t>Màn hình chỉ hiển thị các chương trong môn Hình Học sách giáo khoa. Gồm các chương:
+-1 Chương 1: vector.
+-2 Chương 2: Tích vô hướng của hai vector và ứng dụng.
+-3 Chương 3: Phương pháp toạ độ trong mặt phẳng.</t>
+  </si>
+  <si>
+    <t>Chọn phần xem danh sách bài giảng.
+- Chọn môn học là môn Hình Học.
+- Xem các chương được hiển thị trong phần chọn chương.
+- Chọn chương I</t>
+  </si>
+  <si>
+    <t>Hiển thị các bài học có trong chương I của môn Hình Học:
+-Bài 1: Các định nghĩa.
+- Bài 2: Tổng và hiệu của 2 vector.
+- Bài 3: Tíc của vector với một số.
+- Bài 4: Hệ trục toạ dộ.
+- Bài 5: Ôn tập chương I.</t>
+  </si>
+  <si>
+    <t>Chọn phần xem danh sách bài giảng.
+- Chọn môn học là môn Hình Học.
+- Xem các chương được hiển thị trong phần chọn chương.
+- Chọn chương II</t>
+  </si>
+  <si>
+    <t>Hiển thị các bài học có trong chương II của môn Hình Học:
+- Bài 1: Giá trị lượng giác của một góc bất kỳ từ 0 tới 180.
+- Bài 2: Tích vô hướng của hai vector.
+- Bài 3: Các hệ thức lượng trong tam giác  và giải tam giác.
+- Ôn tập chương II.</t>
+  </si>
+  <si>
+    <t>Hiển thị các bài học có trong chương III của môn Hình Học:
+- Bài 1: Phương trình đường thẳng.
+- Bài 2: Phương trình đường tròn.
+- Bài 3: Phương trình đương elip.
+- Bài 4: Ôn tập chương III.
+- Ôn tập cuối năm.</t>
+  </si>
+  <si>
+    <t>FUNC_ThemBaiGiang_TC1</t>
+  </si>
+  <si>
+    <t>Chức năng thêm một bài giảng mới.</t>
+  </si>
+  <si>
+    <t>abcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyzabcdefghijklmnopqrstuvwxyz</t>
+  </si>
+  <si>
+    <t>Chọn phần thêm bài giảng mới.
+- Nhập tên bài giảng bằng dữ liệu đã kiểm tra.
+- click vào nút Thêm.</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo thêm không thành công vì tên bài giảng quá dài.</t>
+  </si>
+  <si>
+    <t>Tên bài giảng: abc.
+- Nội dung: ""</t>
+  </si>
+  <si>
+    <t>Chọn phần thêm bài giảng mới.
+- Nhập tên bài giảng.
+- Click vào nút thêm.</t>
+  </si>
+  <si>
+    <t>Hiển thị thông báo: đã thêm bài giảng thành công.</t>
   </si>
 </sst>
 </file>
@@ -1975,6 +2259,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2109,6 +2394,23 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
         <sz val="26"/>
         <color rgb="FFFF0000"/>
         <name val="Times New Roman"/>
@@ -2245,23 +2547,6 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Times New Roman"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
         <name val="Times New Roman"/>
@@ -2275,19 +2560,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H120" headerRowDxfId="9" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A2:H120" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A2:H120">
     <filterColumn colId="7"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" name="Column1" totalsRowLabel="Total" dataDxfId="8"/>
-    <tableColumn id="2" name="Column2" dataDxfId="7"/>
-    <tableColumn id="3" name="Column3" dataDxfId="6"/>
-    <tableColumn id="4" name="Column4" dataDxfId="5"/>
-    <tableColumn id="8" name="Column8" dataDxfId="4"/>
-    <tableColumn id="9" name="Column9" dataDxfId="3"/>
-    <tableColumn id="10" name="Column10" totalsRowFunction="count" dataDxfId="0"/>
-    <tableColumn id="5" name="Column11" dataDxfId="2"/>
+    <tableColumn id="1" name="Column1" totalsRowLabel="Total" dataDxfId="7"/>
+    <tableColumn id="2" name="Column2" dataDxfId="6"/>
+    <tableColumn id="3" name="Column3" dataDxfId="5"/>
+    <tableColumn id="4" name="Column4" dataDxfId="4"/>
+    <tableColumn id="8" name="Column8" dataDxfId="3"/>
+    <tableColumn id="9" name="Column9" dataDxfId="2"/>
+    <tableColumn id="10" name="Column10" totalsRowFunction="count" dataDxfId="1"/>
+    <tableColumn id="5" name="Column11" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2581,8 +2866,8 @@
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
+      <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F73" sqref="F73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="33"/>
@@ -2624,7 +2909,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" s="2" customFormat="1" ht="99" hidden="1">
+    <row r="2" spans="1:8" s="2" customFormat="1" ht="66" hidden="1">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -3036,7 +3321,7 @@
       </c>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" s="2" customFormat="1" ht="51">
+    <row r="19" spans="1:8" s="2" customFormat="1" ht="38.25">
       <c r="A19" s="8" t="s">
         <v>44</v>
       </c>
@@ -3164,7 +3449,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="2" customFormat="1" ht="76.5">
+    <row r="24" spans="1:8" s="2" customFormat="1" ht="63.75">
       <c r="A24" s="8" t="s">
         <v>60</v>
       </c>
@@ -3454,7 +3739,7 @@
       <c r="G36" s="12"/>
       <c r="H36" s="8"/>
     </row>
-    <row r="37" spans="1:8" s="2" customFormat="1" ht="38.25">
+    <row r="37" spans="1:8" s="2" customFormat="1">
       <c r="A37" s="8" t="s">
         <v>135</v>
       </c>
@@ -3600,536 +3885,949 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" s="2" customFormat="1" ht="38.25">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
+    <row r="43" spans="1:8" s="2" customFormat="1">
+      <c r="A43" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>171</v>
+      </c>
       <c r="C43" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="13"/>
+      <c r="D43" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F43" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="G43" s="12"/>
       <c r="H43" s="8"/>
     </row>
-    <row r="44" spans="1:8" ht="38.25">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
+    <row r="44" spans="1:8" s="2" customFormat="1" ht="76.5">
+      <c r="A44" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>171</v>
+      </c>
       <c r="C44" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="H44" s="10"/>
-    </row>
-    <row r="45" spans="1:8" ht="38.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
+      <c r="D44" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="12"/>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:8" s="2" customFormat="1" ht="76.5">
+      <c r="A45" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>171</v>
+      </c>
       <c r="C45" s="8" t="s">
         <v>107</v>
       </c>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="H45" s="10"/>
-    </row>
-    <row r="46" spans="1:8" ht="38.25">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
+      <c r="D45" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G45" s="12"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:8" s="2" customFormat="1" ht="76.5">
+      <c r="A46" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>171</v>
+      </c>
       <c r="C46" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="H47" s="10"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="H48" s="10"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="H49" s="10"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="H50" s="10"/>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="H51" s="10"/>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="H52" s="10"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="H53" s="10"/>
-    </row>
-    <row r="54" spans="1:8">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="H54" s="10"/>
-    </row>
-    <row r="55" spans="1:8">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="H55" s="10"/>
-    </row>
-    <row r="56" spans="1:8">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="H56" s="10"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="H57" s="10"/>
-    </row>
-    <row r="58" spans="1:8">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="H58" s="10"/>
-    </row>
-    <row r="59" spans="1:8">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="H59" s="10"/>
-    </row>
-    <row r="60" spans="1:8">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="H60" s="10"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="H61" s="10"/>
-    </row>
-    <row r="62" spans="1:8">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="H62" s="10"/>
-    </row>
-    <row r="63" spans="1:8">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="H63" s="10"/>
-    </row>
-    <row r="64" spans="1:8">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="H64" s="10"/>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="H65" s="10"/>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="H66" s="10"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="H67" s="10"/>
-    </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="H68" s="10"/>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="H69" s="10"/>
-    </row>
-    <row r="70" spans="1:8">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="H70" s="10"/>
-    </row>
-    <row r="71" spans="1:8">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="H71" s="10"/>
-    </row>
-    <row r="72" spans="1:8">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="H72" s="10"/>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="H73" s="10"/>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="H74" s="10"/>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="H75" s="10"/>
-    </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="H76" s="10"/>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="H77" s="10"/>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="H78" s="10"/>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="H79" s="10"/>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="H80" s="10"/>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="10"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="H81" s="10"/>
-    </row>
-    <row r="82" spans="1:8">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="H82" s="10"/>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="H83" s="10"/>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="H84" s="10"/>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="H85" s="10"/>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="10"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
-      <c r="H86" s="10"/>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="10"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10"/>
-      <c r="E87" s="10"/>
-      <c r="F87" s="10"/>
-      <c r="H87" s="10"/>
-    </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="10"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10"/>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10"/>
-      <c r="H88" s="10"/>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="10"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10"/>
-      <c r="E89" s="10"/>
-      <c r="F89" s="10"/>
-      <c r="H89" s="10"/>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10"/>
-      <c r="F90" s="10"/>
-      <c r="H90" s="10"/>
-    </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="10"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10"/>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="H91" s="10"/>
-    </row>
-    <row r="92" spans="1:8">
-      <c r="A92" s="10"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10"/>
-      <c r="F92" s="10"/>
-      <c r="H92" s="10"/>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="10"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10"/>
-      <c r="E93" s="10"/>
-      <c r="F93" s="10"/>
-      <c r="H93" s="10"/>
-    </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="10"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
-      <c r="F94" s="10"/>
-      <c r="H94" s="10"/>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="10"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
-      <c r="F95" s="10"/>
-      <c r="H95" s="10"/>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="10"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10"/>
-      <c r="H96" s="10"/>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="10"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
-      <c r="F97" s="10"/>
-      <c r="H97" s="10"/>
-    </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="10"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10"/>
-      <c r="H98" s="10"/>
-    </row>
-    <row r="99" spans="1:8">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="H99" s="10"/>
-    </row>
-    <row r="100" spans="1:8">
-      <c r="A100" s="10"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="10"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10"/>
-      <c r="H100" s="10"/>
+        <v>107</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" s="12"/>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:8" s="2" customFormat="1" ht="76.5">
+      <c r="A47" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" s="12"/>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:8" s="2" customFormat="1" ht="63.75">
+      <c r="A48" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G48" s="12"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" s="2" customFormat="1" ht="89.25">
+      <c r="A49" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G49" s="12"/>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" s="2" customFormat="1" ht="127.5">
+      <c r="A50" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G50" s="12"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" s="2" customFormat="1" ht="178.5">
+      <c r="A51" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F51" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51" s="12"/>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:8" s="2" customFormat="1" ht="102">
+      <c r="A52" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G52" s="12"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" s="2" customFormat="1" ht="76.5">
+      <c r="A53" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D53" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G53" s="12"/>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" s="2" customFormat="1" ht="76.5">
+      <c r="A54" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="G54" s="12"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" s="2" customFormat="1" ht="63.75">
+      <c r="A55" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G55" s="12"/>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8" s="2" customFormat="1" ht="89.25">
+      <c r="A56" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56" s="12"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8" s="2" customFormat="1" ht="63.75">
+      <c r="A57" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G57" s="12"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" s="2" customFormat="1" ht="63.75">
+      <c r="A58" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F58" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G58" s="12"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8" s="2" customFormat="1" ht="63.75">
+      <c r="A59" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B59" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C59" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D59" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F59" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="G59" s="12"/>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="1:8" s="2" customFormat="1" ht="178.5">
+      <c r="A60" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G60" s="12"/>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="1:8" s="2" customFormat="1" ht="102">
+      <c r="A61" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G61" s="12"/>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:8" s="2" customFormat="1" ht="76.5">
+      <c r="A62" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="B62" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C62" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="G62" s="12"/>
+      <c r="H62" s="8"/>
+    </row>
+    <row r="63" spans="1:8" s="2" customFormat="1" ht="102">
+      <c r="A63" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B63" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G63" s="12"/>
+      <c r="H63" s="8"/>
+    </row>
+    <row r="64" spans="1:8" s="2" customFormat="1" ht="114.75">
+      <c r="A64" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B64" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="G64" s="12"/>
+      <c r="H64" s="8"/>
+    </row>
+    <row r="65" spans="1:8" s="2" customFormat="1" ht="102">
+      <c r="A65" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="B65" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G65" s="12"/>
+      <c r="H65" s="8"/>
+    </row>
+    <row r="66" spans="1:8" s="2" customFormat="1" ht="89.25">
+      <c r="A66" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="B66" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G66" s="12"/>
+      <c r="H66" s="8"/>
+    </row>
+    <row r="67" spans="1:8" s="2" customFormat="1" ht="102">
+      <c r="A67" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="B67" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G67" s="12"/>
+      <c r="H67" s="8"/>
+    </row>
+    <row r="68" spans="1:8" s="2" customFormat="1" ht="89.25">
+      <c r="A68" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="G68" s="12"/>
+      <c r="H68" s="8"/>
+    </row>
+    <row r="69" spans="1:8" s="2" customFormat="1" ht="114.75">
+      <c r="A69" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="F69" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G69" s="12"/>
+      <c r="H69" s="8"/>
+    </row>
+    <row r="70" spans="1:8" s="2" customFormat="1" ht="89.25">
+      <c r="A70" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G70" s="12"/>
+      <c r="H70" s="8"/>
+    </row>
+    <row r="71" spans="1:8" s="2" customFormat="1" ht="127.5">
+      <c r="A71" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B71" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="F71" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H71" s="8"/>
+    </row>
+    <row r="72" spans="1:8" s="2" customFormat="1" ht="38.25">
+      <c r="A72" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="F72" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="H72" s="8"/>
+    </row>
+    <row r="73" spans="1:8" s="2" customFormat="1">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="12"/>
+      <c r="H73" s="8"/>
+    </row>
+    <row r="74" spans="1:8" s="2" customFormat="1">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="8"/>
+      <c r="E74" s="8"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="12"/>
+      <c r="H74" s="8"/>
+    </row>
+    <row r="75" spans="1:8" s="2" customFormat="1">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="8"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="12"/>
+      <c r="H75" s="8"/>
+    </row>
+    <row r="76" spans="1:8" s="2" customFormat="1">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="8"/>
+      <c r="E76" s="8"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="12"/>
+      <c r="H76" s="8"/>
+    </row>
+    <row r="77" spans="1:8" s="2" customFormat="1">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="12"/>
+      <c r="H77" s="8"/>
+    </row>
+    <row r="78" spans="1:8" s="2" customFormat="1">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="8"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="12"/>
+      <c r="H78" s="8"/>
+    </row>
+    <row r="79" spans="1:8" s="2" customFormat="1">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="8"/>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="12"/>
+      <c r="H79" s="8"/>
+    </row>
+    <row r="80" spans="1:8" s="2" customFormat="1">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="12"/>
+      <c r="H80" s="8"/>
+    </row>
+    <row r="81" spans="1:8" s="2" customFormat="1">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="8"/>
+      <c r="E81" s="8"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="12"/>
+      <c r="H81" s="8"/>
+    </row>
+    <row r="82" spans="1:8" s="2" customFormat="1">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="8"/>
+      <c r="E82" s="8"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="12"/>
+      <c r="H82" s="8"/>
+    </row>
+    <row r="83" spans="1:8" s="2" customFormat="1">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="8"/>
+      <c r="E83" s="8"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="12"/>
+      <c r="H83" s="8"/>
+    </row>
+    <row r="84" spans="1:8" s="2" customFormat="1">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="12"/>
+      <c r="H84" s="8"/>
+    </row>
+    <row r="85" spans="1:8" s="2" customFormat="1">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="8"/>
+      <c r="E85" s="8"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="12"/>
+      <c r="H85" s="8"/>
+    </row>
+    <row r="86" spans="1:8" s="2" customFormat="1">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="8"/>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="12"/>
+      <c r="H86" s="8"/>
+    </row>
+    <row r="87" spans="1:8" s="2" customFormat="1">
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="8"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="8"/>
+      <c r="G87" s="12"/>
+      <c r="H87" s="8"/>
+    </row>
+    <row r="88" spans="1:8" s="2" customFormat="1">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="8"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="12"/>
+      <c r="H88" s="8"/>
+    </row>
+    <row r="89" spans="1:8" s="2" customFormat="1">
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="8"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="8"/>
+      <c r="G89" s="12"/>
+      <c r="H89" s="8"/>
+    </row>
+    <row r="90" spans="1:8" s="2" customFormat="1">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="8"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8"/>
+      <c r="G90" s="12"/>
+      <c r="H90" s="8"/>
+    </row>
+    <row r="91" spans="1:8" s="2" customFormat="1">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="8"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="8"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="8"/>
+    </row>
+    <row r="92" spans="1:8" s="2" customFormat="1">
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8"/>
+      <c r="G92" s="12"/>
+      <c r="H92" s="8"/>
+    </row>
+    <row r="93" spans="1:8" s="2" customFormat="1">
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="8"/>
+      <c r="G93" s="12"/>
+      <c r="H93" s="8"/>
+    </row>
+    <row r="94" spans="1:8" s="2" customFormat="1">
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="8"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="12"/>
+      <c r="H94" s="8"/>
+    </row>
+    <row r="95" spans="1:8" s="2" customFormat="1">
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="8"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="12"/>
+      <c r="H95" s="8"/>
+    </row>
+    <row r="96" spans="1:8" s="2" customFormat="1">
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="8"/>
+      <c r="E96" s="8"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="12"/>
+      <c r="H96" s="8"/>
+    </row>
+    <row r="97" spans="1:8" s="2" customFormat="1">
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="8"/>
+      <c r="E97" s="8"/>
+      <c r="F97" s="8"/>
+      <c r="G97" s="12"/>
+      <c r="H97" s="8"/>
+    </row>
+    <row r="98" spans="1:8" s="2" customFormat="1">
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8"/>
+      <c r="G98" s="12"/>
+      <c r="H98" s="8"/>
+    </row>
+    <row r="99" spans="1:8" s="2" customFormat="1">
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8"/>
+      <c r="F99" s="8"/>
+      <c r="G99" s="12"/>
+      <c r="H99" s="8"/>
+    </row>
+    <row r="100" spans="1:8" s="2" customFormat="1">
+      <c r="A100" s="8"/>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8"/>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8"/>
+      <c r="F100" s="8"/>
+      <c r="G100" s="12"/>
+      <c r="H100" s="8"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="10"/>
